--- a/excel/GUI Automated Testing -Project creation.xlsx
+++ b/excel/GUI Automated Testing -Project creation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_PC_AN_001" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="139">
   <si>
     <t>Step</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>//mat-calendar//div[contains(text(),'16')]</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>makes a login</t>
   </si>
 </sst>
 </file>
@@ -775,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,13 +832,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -846,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -866,13 +869,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -883,19 +886,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -906,92 +906,9 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3760,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5714,10 +5631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5766,13 +5683,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -5786,13 +5700,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -5806,13 +5720,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -5826,16 +5740,16 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -5849,16 +5763,16 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -5872,13 +5786,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -5889,16 +5803,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -5912,13 +5829,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -5929,19 +5846,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -5952,19 +5860,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -5978,13 +5883,13 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -5995,19 +5900,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -6021,13 +5923,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -6038,10 +5940,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -6055,13 +5963,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -6072,16 +5980,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -6092,100 +5994,6 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
         <v>33</v>
       </c>
     </row>

--- a/excel/GUI Automated Testing -Project creation.xlsx
+++ b/excel/GUI Automated Testing -Project creation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_PC_AN_001" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="GUI_PC_AN_016" sheetId="16" r:id="rId16"/>
     <sheet name="GUI_PC_AN_017" sheetId="17" r:id="rId17"/>
     <sheet name="GUI_PC_AN_018" sheetId="18" r:id="rId18"/>
+    <sheet name="Parameters" sheetId="19" r:id="rId19"/>
+    <sheet name="Objects" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="140">
   <si>
     <t>Step</t>
   </si>
@@ -68,9 +70,6 @@
   </si>
   <si>
     <t>screenshot</t>
-  </si>
-  <si>
-    <t>NumericType</t>
   </si>
   <si>
     <t>navigate</t>
@@ -262,9 +261,6 @@
     <t>Project2</t>
   </si>
   <si>
-    <t>Wait Time</t>
-  </si>
-  <si>
     <t>Project3</t>
   </si>
   <si>
@@ -461,6 +457,15 @@
   </si>
   <si>
     <t>makes a login</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ValueLocator</t>
   </si>
 </sst>
 </file>
@@ -781,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +800,7 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,90 +828,87 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -920,10 +922,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +937,7 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,317 +965,314 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1284,16 +1283,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1304,10 +1303,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1318,16 +1317,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1338,16 +1337,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1358,10 +1357,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1372,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1382,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1394,7 @@
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1423,317 +1422,314 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1744,10 +1740,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1758,16 +1754,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1778,16 +1774,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1798,16 +1794,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1818,16 +1814,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1838,16 +1834,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1858,16 +1854,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
         <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -1878,16 +1874,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -1898,7 +1894,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1908,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="B39:C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1917,7 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1949,317 +1945,314 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -2270,16 +2263,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -2290,10 +2283,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -2304,16 +2297,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -2324,16 +2317,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -2344,16 +2337,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -2364,16 +2357,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -2384,16 +2377,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -2404,16 +2397,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -2424,7 +2417,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -2435,7 +2428,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,7 +2451,7 @@
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2486,317 +2479,314 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -2807,10 +2797,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -2821,16 +2811,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -2841,16 +2831,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -2861,16 +2851,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -2881,16 +2871,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -2901,16 +2891,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -2921,16 +2911,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -2941,16 +2931,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -2961,16 +2951,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -2981,16 +2971,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
         <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -3001,7 +2991,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3011,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,7 +3015,7 @@
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3053,320 +3043,317 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -3377,16 +3364,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -3397,16 +3384,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -3417,16 +3404,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -3437,16 +3424,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -3457,10 +3444,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -3471,16 +3458,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -3491,16 +3478,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -3511,16 +3498,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -3531,16 +3518,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -3551,16 +3538,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -3571,16 +3558,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -3591,16 +3578,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -3611,16 +3598,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -3631,16 +3618,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
         <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -3651,10 +3638,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
         <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -3665,7 +3652,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3675,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,7 +3675,7 @@
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3716,317 +3703,314 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -4037,16 +4021,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -4057,16 +4041,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -4077,16 +4061,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -4097,16 +4081,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -4117,10 +4101,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -4131,7 +4115,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4141,10 +4125,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,7 +4139,7 @@
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4183,202 +4167,199 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4388,10 +4369,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4401,7 +4382,7 @@
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4429,320 +4410,317 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>128</v>
       </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -4753,16 +4731,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -4773,16 +4751,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -4793,16 +4771,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -4813,10 +4791,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -4827,16 +4805,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -4847,16 +4825,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
         <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -4867,16 +4845,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -4887,16 +4865,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -4907,16 +4885,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -4927,16 +4905,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -4947,16 +4925,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -4967,16 +4945,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
         <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -4987,10 +4965,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -5001,7 +4979,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5011,10 +4989,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,7 +5002,7 @@
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5052,314 +5030,311 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -5370,10 +5345,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -5384,16 +5359,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -5404,16 +5379,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -5424,16 +5399,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -5444,16 +5419,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -5464,16 +5439,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -5484,16 +5459,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -5504,16 +5479,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -5524,16 +5499,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -5544,16 +5519,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
         <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -5564,19 +5539,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
         <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -5587,16 +5562,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
         <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -5607,10 +5582,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -5621,7 +5596,30 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5631,10 +5629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5646,7 +5644,7 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5674,302 +5672,299 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
         <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -5980,10 +5975,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -5994,7 +5989,36 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6004,10 +6028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6019,7 +6043,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6047,225 +6071,222 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6275,10 +6296,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,7 +6310,7 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6317,225 +6338,222 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6545,10 +6563,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6558,7 +6576,7 @@
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6586,202 +6604,199 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6791,10 +6806,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6804,7 +6819,7 @@
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6832,202 +6847,199 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7037,10 +7049,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7052,7 +7064,7 @@
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7080,288 +7092,285 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7371,10 +7380,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7384,7 +7393,7 @@
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7412,308 +7421,305 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -7724,16 +7730,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -7744,16 +7750,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -7764,10 +7770,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -7778,16 +7784,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -7798,16 +7804,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
         <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -7818,16 +7824,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -7838,16 +7844,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -7858,16 +7864,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -7878,10 +7884,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -7892,7 +7898,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7902,10 +7908,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7914,7 +7920,7 @@
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7942,320 +7948,317 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
         <v>83</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -8266,16 +8269,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -8286,16 +8289,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -8306,16 +8309,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -8326,16 +8329,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -8346,16 +8349,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -8366,16 +8369,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -8386,16 +8389,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -8406,16 +8409,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -8426,16 +8429,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
         <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>55</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -8446,16 +8449,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -8466,16 +8469,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -8486,16 +8489,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -8506,7 +8509,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/excel/GUI Automated Testing -Project creation.xlsx
+++ b/excel/GUI Automated Testing -Project creation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_PC_AN_001" sheetId="1" r:id="rId1"/>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,8 +6001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel/GUI Automated Testing -Project creation.xlsx
+++ b/excel/GUI Automated Testing -Project creation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_PC_AN_001" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -5631,7 +5631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
